--- a/集石杯War Chest比赛赛程.xlsx
+++ b/集石杯War Chest比赛赛程.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdlme\Desktop\比赛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277EB78D-EA5B-404A-9372-D54465F67B3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5760D-0BD9-4D4C-B887-5702968CE708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4349F777-7F1D-C349-A3A4-CEDAE2FB92A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4349F777-7F1D-C349-A3A4-CEDAE2FB92A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
   <si>
     <t>一鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +89,10 @@
   </si>
   <si>
     <t>Alex夏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B31DAF-9209-0941-8914-B69FB50E3336}">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G15" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
@@ -728,40 +733,60 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="M25:N26"/>
     <mergeCell ref="A17:B18"/>
     <mergeCell ref="A21:B22"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="A29:B30"/>
     <mergeCell ref="C19:D20"/>
     <mergeCell ref="C27:D28"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C3:D4"/>
     <mergeCell ref="E7:F8"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A9:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A568F1-57D0-4905-B861-41417E641CC4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/集石杯War Chest比赛赛程.xlsx
+++ b/集石杯War Chest比赛赛程.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wdlme\Desktop\比赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwdl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5760D-0BD9-4D4C-B887-5702968CE708}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B36B05-D0EC-49B6-A117-006FDFBA490C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4349F777-7F1D-C349-A3A4-CEDAE2FB92A4}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>一鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -733,11 +737,25 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E7:F8"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C27:D28"/>
     <mergeCell ref="E23:F24"/>
     <mergeCell ref="M29:N30"/>
     <mergeCell ref="I23:J24"/>
@@ -745,25 +763,11 @@
     <mergeCell ref="K27:L28"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="M25:N26"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="M17:N18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,15 +777,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A568F1-57D0-4905-B861-41417E641CC4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/集石杯War Chest比赛赛程.xlsx
+++ b/集石杯War Chest比赛赛程.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwdl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B36B05-D0EC-49B6-A117-006FDFBA490C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B10F1BD6-7C4B-4450-AD8E-BC784420C594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4349F777-7F1D-C349-A3A4-CEDAE2FB92A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4349F777-7F1D-C349-A3A4-CEDAE2FB92A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>一鸣</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +98,10 @@
   </si>
   <si>
     <t>广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,6 +742,30 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="M5:N6"/>
+    <mergeCell ref="M9:N10"/>
+    <mergeCell ref="M13:N14"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E23:F24"/>
+    <mergeCell ref="M29:N30"/>
+    <mergeCell ref="I23:J24"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="K27:L28"/>
+    <mergeCell ref="M21:N22"/>
+    <mergeCell ref="M25:N26"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="I7:J8"/>
+    <mergeCell ref="K3:L4"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="E7:F8"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="G14:H14"/>
@@ -744,30 +773,6 @@
     <mergeCell ref="A13:B14"/>
     <mergeCell ref="A5:B6"/>
     <mergeCell ref="A9:B10"/>
-    <mergeCell ref="I7:J8"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="E7:F8"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="M29:N30"/>
-    <mergeCell ref="I23:J24"/>
-    <mergeCell ref="K19:L20"/>
-    <mergeCell ref="K27:L28"/>
-    <mergeCell ref="M21:N22"/>
-    <mergeCell ref="M25:N26"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="M5:N6"/>
-    <mergeCell ref="M9:N10"/>
-    <mergeCell ref="M13:N14"/>
-    <mergeCell ref="M17:N18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -779,7 +784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A568F1-57D0-4905-B861-41417E641CC4}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -800,4 +805,26 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49088126-7DB7-443C-88B6-E0BD4404A4AD}">
+  <dimension ref="D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>